--- a/data/Result_theo.xlsx
+++ b/data/Result_theo.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="25600" windowHeight="14060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="301">
   <si>
     <t>Month</t>
   </si>
@@ -161,9 +163,6 @@
     <t>L-STAT 1-topic</t>
   </si>
   <si>
-    <t>Brazil-S</t>
-  </si>
-  <si>
     <t>Chile-S</t>
   </si>
   <si>
@@ -193,11 +192,749 @@
   <si>
     <t>F1</t>
   </si>
+  <si>
+    <t>2014-01-01_2014-01-31</t>
+  </si>
+  <si>
+    <t>2014-02-01_2014-02-28</t>
+  </si>
+  <si>
+    <t>2014-03-01_2014-03-31</t>
+  </si>
+  <si>
+    <t>R+</t>
+  </si>
+  <si>
+    <t>R-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T </t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>bsr sstat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R+ </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z </t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t>Not Significant</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>lstat sstat</t>
+  </si>
+  <si>
+    <t>Quality Score</t>
+  </si>
+  <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>L-STAT</t>
+  </si>
+  <si>
+    <t>S-STAT</t>
+  </si>
+  <si>
+    <t>LeadTime</t>
+  </si>
+  <si>
+    <t>www.lanacion.cl</t>
+  </si>
+  <si>
+    <t>radiopolar.com</t>
+  </si>
+  <si>
+    <t>www.elcorreo.com</t>
+  </si>
+  <si>
+    <t>www.biobiochile.cl</t>
+  </si>
+  <si>
+    <t>noticias.terra.es</t>
+  </si>
+  <si>
+    <t>elsolonline.com</t>
+  </si>
+  <si>
+    <t>www.elpinguino.com</t>
+  </si>
+  <si>
+    <t>spanish.peopledaily.com.cn</t>
+  </si>
+  <si>
+    <t>www.puranoticia.cl</t>
+  </si>
+  <si>
+    <t>noticias.terra.cl</t>
+  </si>
+  <si>
+    <t>www.abc.es</t>
+  </si>
+  <si>
+    <t>www.lostiempos.com</t>
+  </si>
+  <si>
+    <t>www.elnaveghable.cl</t>
+  </si>
+  <si>
+    <t>www.elrancaguino.cl</t>
+  </si>
+  <si>
+    <t>eltipografo.cl</t>
+  </si>
+  <si>
+    <t>www.elrancahuaso.cl</t>
+  </si>
+  <si>
+    <t>www.elrepuertero.cl</t>
+  </si>
+  <si>
+    <t>www.diarioladiscusion.cl</t>
+  </si>
+  <si>
+    <t>www.cooperativa.cl</t>
+  </si>
+  <si>
+    <t>diario.latercera.com</t>
+  </si>
+  <si>
+    <t>www.eldeber.com.bo</t>
+  </si>
+  <si>
+    <t>datachaco.com</t>
+  </si>
+  <si>
+    <t>elrecado.net</t>
+  </si>
+  <si>
+    <t>espanol.upi.com</t>
+  </si>
+  <si>
+    <t>historico.elpais.com.uy</t>
+  </si>
+  <si>
+    <t>infocampo.com.ar</t>
+  </si>
+  <si>
+    <t>noticias.iruya.com</t>
+  </si>
+  <si>
+    <t>palermonline.com.ar</t>
+  </si>
+  <si>
+    <t>www.abc.com.py</t>
+  </si>
+  <si>
+    <t>www.agenciafe.com</t>
+  </si>
+  <si>
+    <t>www.ahoracalafate.com.ar</t>
+  </si>
+  <si>
+    <t>www.barilocheopina.com</t>
+  </si>
+  <si>
+    <t>www.buenosairesherald.com</t>
+  </si>
+  <si>
+    <t>www.canaldenoticias.cl</t>
+  </si>
+  <si>
+    <t>www.clarin.com</t>
+  </si>
+  <si>
+    <t>www.contactopolitico.com.ar</t>
+  </si>
+  <si>
+    <t>www.corrienteshoy.com</t>
+  </si>
+  <si>
+    <t>www.diarioactualidad.com</t>
+  </si>
+  <si>
+    <t>www.diarioc.com.ar</t>
+  </si>
+  <si>
+    <t>www.diarioelargentino.com.ar</t>
+  </si>
+  <si>
+    <t>www.diarionorte.com</t>
+  </si>
+  <si>
+    <t>www.diariopanorama.com</t>
+  </si>
+  <si>
+    <t>www.diariopopular.com.ar</t>
+  </si>
+  <si>
+    <t>www.elcomercial.com.ar</t>
+  </si>
+  <si>
+    <t>www.eldia.com.ar</t>
+  </si>
+  <si>
+    <t>www.elintransigente.com</t>
+  </si>
+  <si>
+    <t>www.elsalvador.com</t>
+  </si>
+  <si>
+    <t>www.eltribuno.info</t>
+  </si>
+  <si>
+    <t>www.eluniversal.com.mx</t>
+  </si>
+  <si>
+    <t>www.generaccion.com</t>
+  </si>
+  <si>
+    <t>www.hechosdehoy.com</t>
+  </si>
+  <si>
+    <t>www.infanciahoy.com</t>
+  </si>
+  <si>
+    <t>www.infoban.com.ar</t>
+  </si>
+  <si>
+    <t>www.inforegion.com.ar</t>
+  </si>
+  <si>
+    <t>www.laarena.com.ar</t>
+  </si>
+  <si>
+    <t>www.lacapital.com.ar</t>
+  </si>
+  <si>
+    <t>www.lagaceta.com.ar</t>
+  </si>
+  <si>
+    <t>www.lanacion.com.ar</t>
+  </si>
+  <si>
+    <t>www.lanacion.com.py</t>
+  </si>
+  <si>
+    <t>www.lanoticia1.com</t>
+  </si>
+  <si>
+    <t>www.laprensagrafica.com</t>
+  </si>
+  <si>
+    <t>www.lavozdetandil.com.ar</t>
+  </si>
+  <si>
+    <t>www.lmcordoba.com.ar</t>
+  </si>
+  <si>
+    <t>www.losandes.com.ar</t>
+  </si>
+  <si>
+    <t>www.miradaprofesional.com</t>
+  </si>
+  <si>
+    <t>www.misionesonline.net</t>
+  </si>
+  <si>
+    <t>www.momarandu.com</t>
+  </si>
+  <si>
+    <t>www.nosis.com.ar</t>
+  </si>
+  <si>
+    <t>www.nuevodiarioweb.com.ar</t>
+  </si>
+  <si>
+    <t>www.pagina12.com.ar</t>
+  </si>
+  <si>
+    <t>www.quilmespresente.com</t>
+  </si>
+  <si>
+    <t>www.rionegro.com.ar</t>
+  </si>
+  <si>
+    <t>www.telam.com.ar</t>
+  </si>
+  <si>
+    <t>www.territoriodigital.com</t>
+  </si>
+  <si>
+    <t>www.tiempodesanjuan.com</t>
+  </si>
+  <si>
+    <t>www.tucumanalas7.com.ar</t>
+  </si>
+  <si>
+    <t>www.ultimahora.com</t>
+  </si>
+  <si>
+    <t>tribunadonorte.com.br</t>
+  </si>
+  <si>
+    <t>ne10.uol.com.br</t>
+  </si>
+  <si>
+    <t>www.parana-online.com.br</t>
+  </si>
+  <si>
+    <t>www.diariodepernambuco.com.br</t>
+  </si>
+  <si>
+    <t>g1.globo.com</t>
+  </si>
+  <si>
+    <t>www.dci.com.br</t>
+  </si>
+  <si>
+    <t>www.radioriovermelho.com.br</t>
+  </si>
+  <si>
+    <t>odia.ig.com.br</t>
+  </si>
+  <si>
+    <t>www.vermelho.org.br</t>
+  </si>
+  <si>
+    <t>www.oriobranco.net</t>
+  </si>
+  <si>
+    <t>www.agencia.ac.gov.br</t>
+  </si>
+  <si>
+    <t>acritica.uol.com.br</t>
+  </si>
+  <si>
+    <t>www.jcnet.com.br</t>
+  </si>
+  <si>
+    <t>br.noticias.yahoo.com</t>
+  </si>
+  <si>
+    <t>noticias.terra.com.br</t>
+  </si>
+  <si>
+    <t>veja.abril.com.br</t>
+  </si>
+  <si>
+    <t>memoria.ebc.com.br</t>
+  </si>
+  <si>
+    <t>diariodovale.uol.com.br</t>
+  </si>
+  <si>
+    <t>jornal.ofluminense.com.br</t>
+  </si>
+  <si>
+    <t>www.monitormercantil.com.br</t>
+  </si>
+  <si>
+    <t>www.bonitonoticias.com.br</t>
+  </si>
+  <si>
+    <t>www.jornalacidade.com.br</t>
+  </si>
+  <si>
+    <t>www.jornalfloripa.com.br</t>
+  </si>
+  <si>
+    <t>www.midiamax.com.br</t>
+  </si>
+  <si>
+    <t>www.capitalnews.com.br</t>
+  </si>
+  <si>
+    <t>www.diariodecanoas.com.br</t>
+  </si>
+  <si>
+    <t>www.ariquemesonline.com.br</t>
+  </si>
+  <si>
+    <t>msnoticias.com.br</t>
+  </si>
+  <si>
+    <t>www.jb.com.br</t>
+  </si>
+  <si>
+    <t>www.grandefm.com.br</t>
+  </si>
+  <si>
+    <t>www.progresso.com.br</t>
+  </si>
+  <si>
+    <t>www.tnonline.com.br</t>
+  </si>
+  <si>
+    <t>www.idest.com.br</t>
+  </si>
+  <si>
+    <t>www.correiodecorumba.com.br</t>
+  </si>
+  <si>
+    <t>www.agorams.com.br</t>
+  </si>
+  <si>
+    <t>www.jornaldiadia.com.br</t>
+  </si>
+  <si>
+    <t>www.acritica.net</t>
+  </si>
+  <si>
+    <t>www.campograndenews.com.br</t>
+  </si>
+  <si>
+    <t>boainformacao.com.br</t>
+  </si>
+  <si>
+    <t>www.em.com.br</t>
+  </si>
+  <si>
+    <t>www.portalamazonia.com.br</t>
+  </si>
+  <si>
+    <t>noticias.band.uol.com.br</t>
+  </si>
+  <si>
+    <t>www.midianews.com.br</t>
+  </si>
+  <si>
+    <t>www.jornalnanet.com.br</t>
+  </si>
+  <si>
+    <t>www.canalrioclaro.com.br</t>
+  </si>
+  <si>
+    <t>www.itu.com.br</t>
+  </si>
+  <si>
+    <t>chicoterra.com</t>
+  </si>
+  <si>
+    <t>www.ribeiraopretoonline.com.br</t>
+  </si>
+  <si>
+    <t>www.jmonline.com.br</t>
+  </si>
+  <si>
+    <t>www.regiaonoroeste.com</t>
+  </si>
+  <si>
+    <t>www.planetanews.com.br</t>
+  </si>
+  <si>
+    <t>exame.abril.com.br</t>
+  </si>
+  <si>
+    <t>www.dgabc.com.br</t>
+  </si>
+  <si>
+    <t>www.difusora1340.com.br</t>
+  </si>
+  <si>
+    <t>saopaulo.sp.gov.br</t>
+  </si>
+  <si>
+    <t>www.cruzeirodosul.inf.br</t>
+  </si>
+  <si>
+    <t>www.reporterdiario.com.br</t>
+  </si>
+  <si>
+    <t>www.redebomdia.com.br</t>
+  </si>
+  <si>
+    <t>www.estadao.com.br</t>
+  </si>
+  <si>
+    <t>www.olhardireto.com.br</t>
+  </si>
+  <si>
+    <t>www.portalr3.com.br</t>
+  </si>
+  <si>
+    <t>www.destakjornal.com.br</t>
+  </si>
+  <si>
+    <t>diariodonordeste.globo.com</t>
+  </si>
+  <si>
+    <t>diariodonordeste.verdesmares.com.br</t>
+  </si>
+  <si>
+    <t>www.opovo.com.br</t>
+  </si>
+  <si>
+    <t>www.portalaz.com.br</t>
+  </si>
+  <si>
+    <t>www.redebrasilatual.com.br</t>
+  </si>
+  <si>
+    <t>sociedad.elpais.com</t>
+  </si>
+  <si>
+    <t>diariocorreo.pe</t>
+  </si>
+  <si>
+    <t>vaccinenewsdaily.com</t>
+  </si>
+  <si>
+    <t>www.diariodopara.com.br</t>
+  </si>
+  <si>
+    <t>www.redenoticia.com.br</t>
+  </si>
+  <si>
+    <t>www.jcorreio.com.br</t>
+  </si>
+  <si>
+    <t>www.noticiasdeempresas.com</t>
+  </si>
+  <si>
+    <t>www.portaldepaulinia.com.br</t>
+  </si>
+  <si>
+    <t>www.pantanalnews.com.br</t>
+  </si>
+  <si>
+    <t>www.odocumento.com.br</t>
+  </si>
+  <si>
+    <t>www.rtp.pt</t>
+  </si>
+  <si>
+    <t>noticias.r7.com</t>
+  </si>
+  <si>
+    <t>www.atribunamt.com.br</t>
+  </si>
+  <si>
+    <t>www.infonet.com.br</t>
+  </si>
+  <si>
+    <t>peru21.pe</t>
+  </si>
+  <si>
+    <t>www.prensa-latina.cu</t>
+  </si>
+  <si>
+    <t>spanish.china.org.cn</t>
+  </si>
+  <si>
+    <t>www.circuitomt.com.br</t>
+  </si>
+  <si>
+    <t>mexico.cnn.com</t>
+  </si>
+  <si>
+    <t>zh.clicrbs.com.br</t>
+  </si>
+  <si>
+    <t>www.que.es</t>
+  </si>
+  <si>
+    <t>www.alagoas24horas.com.br</t>
+  </si>
+  <si>
+    <t>www.ilustrado.com.br</t>
+  </si>
+  <si>
+    <t>noticias.lainformacion.com</t>
+  </si>
+  <si>
+    <t>www.expressomt.com.br</t>
+  </si>
+  <si>
+    <t>www.tiempopyme.com</t>
+  </si>
+  <si>
+    <t>www.cenariomt.com.br</t>
+  </si>
+  <si>
+    <t>www.laprensa.com.ni</t>
+  </si>
+  <si>
+    <t>www.rosario3.com</t>
+  </si>
+  <si>
+    <t>www.24horasnews.com.br</t>
+  </si>
+  <si>
+    <t>globovision.com</t>
+  </si>
+  <si>
+    <t>www.topnews.com.br</t>
+  </si>
+  <si>
+    <t>www.mtagora.com.br</t>
+  </si>
+  <si>
+    <t>www.latercera.com</t>
+  </si>
+  <si>
+    <t>www.noticiasdel6.com</t>
+  </si>
+  <si>
+    <t>www.tribunahoje.com</t>
+  </si>
+  <si>
+    <t>aquiacontece.com.br</t>
+  </si>
+  <si>
+    <t>primeiraedicao.com.br</t>
+  </si>
+  <si>
+    <t>correiodopovo-al.com.br</t>
+  </si>
+  <si>
+    <t>gazetaweb.globo.com</t>
+  </si>
+  <si>
+    <t>www.jeonline.com.br</t>
+  </si>
+  <si>
+    <t>www.folhadosertao.com.br</t>
+  </si>
+  <si>
+    <t>bagarai.com.br</t>
+  </si>
+  <si>
+    <t>odiariodemogi.inf.br</t>
+  </si>
+  <si>
+    <t>www.tvi24.iol.pt</t>
+  </si>
+  <si>
+    <t>www.pbagora.com.br</t>
+  </si>
+  <si>
+    <t>jconline.ne10.uol.com.br</t>
+  </si>
+  <si>
+    <t>www.cmjornal.xl.pt</t>
+  </si>
+  <si>
+    <t>www.rondonoticias.com.br</t>
+  </si>
+  <si>
+    <t>www.rondoniaovivo.com</t>
+  </si>
+  <si>
+    <t>www.tudorondonia.com</t>
+  </si>
+  <si>
+    <t>www.emtempo.com.br</t>
+  </si>
+  <si>
+    <t>www.cidadeverde.com</t>
+  </si>
+  <si>
+    <t>www.administradores.com.br</t>
+  </si>
+  <si>
+    <t>www.aen.pr.gov.br</t>
+  </si>
+  <si>
+    <t>www.bemparana.com.br</t>
+  </si>
+  <si>
+    <t>www.ibahia.com</t>
+  </si>
+  <si>
+    <t>atarde.uol.com.br</t>
+  </si>
+  <si>
+    <t>www2.uol.com.br</t>
+  </si>
+  <si>
+    <t>www.correio24horas.com.br</t>
+  </si>
+  <si>
+    <t>www.hnews.com.br</t>
+  </si>
+  <si>
+    <t>www.ebc.com.br</t>
+  </si>
+  <si>
+    <t>www.noh.com.br</t>
+  </si>
+  <si>
+    <t>www.portalarcos.com.br</t>
+  </si>
+  <si>
+    <t>www.defatoonline.com.br</t>
+  </si>
+  <si>
+    <t>www.correiodeuberlandia.com.br</t>
+  </si>
+  <si>
+    <t>novohamburgo.org</t>
+  </si>
+  <si>
+    <t>www.jornalagora.com.br</t>
+  </si>
+  <si>
+    <t>www.correiodopovo.com.br</t>
+  </si>
+  <si>
+    <t>londrina.odiario.com</t>
+  </si>
+  <si>
+    <t>maringa.odiario.com</t>
+  </si>
+  <si>
+    <t>www.cbncuritiba.com.br</t>
+  </si>
+  <si>
+    <t>www.noticiasbr.com.br</t>
+  </si>
+  <si>
+    <t>blogs.odiario.com</t>
+  </si>
+  <si>
+    <t>www.bonde.com.br</t>
+  </si>
+  <si>
+    <t>www.bvnews.com.br</t>
+  </si>
+  <si>
+    <t>ww.lanacion.cl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/yy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +990,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,8 +1072,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,18 +1129,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -398,6 +1183,29 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -438,6 +1246,29 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,10 +1312,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Brazil</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Brazil-S</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Chile</c:v>
@@ -517,7 +1348,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.425688073394495</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.24</c:v>
@@ -551,10 +1382,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Brazil</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Brazil-S</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Chile</c:v>
@@ -621,10 +1452,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Brazil</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Brazil-S</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Chile</c:v>
@@ -690,11 +1521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2054902456"/>
-        <c:axId val="2054905432"/>
+        <c:axId val="2078805672"/>
+        <c:axId val="2075989912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054902456"/>
+        <c:axId val="2078805672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +1534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054905432"/>
+        <c:crossAx val="2075989912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +1542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054905432"/>
+        <c:axId val="2075989912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,13 +1553,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054902456"/>
+        <c:crossAx val="2078805672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1074,37 +1906,37 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1152,7 +1984,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>41275</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1197,7 +2029,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +2072,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>41306</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1285,7 +2117,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +2160,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>41699</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1373,7 +2205,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +2248,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1459,7 +2291,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +2334,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>41365</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1547,7 +2379,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +2422,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +2465,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>41395</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1678,7 +2510,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +2553,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +2596,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>41426</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1809,7 +2641,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +2684,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>41456</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1897,7 +2729,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +2772,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="5">
+      <c r="A21" s="8">
         <v>41487</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1985,7 +2817,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2860,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2071,7 +2903,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>41518</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2116,7 +2948,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2991,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2202,7 +3034,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>41913</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2247,7 +3079,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +3122,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2333,7 +3165,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="5">
+      <c r="A30" s="8">
         <v>41579</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2378,7 +3210,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +3253,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2464,7 +3296,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="5">
+      <c r="A33" s="8">
         <v>41609</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2509,7 +3341,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
@@ -2552,7 +3384,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +3427,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="5">
+      <c r="A36" s="8">
         <v>41640</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2640,7 +3472,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +3515,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="5">
+      <c r="A38" s="8">
         <v>41671</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2728,7 +3560,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="5"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2771,7 +3603,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="5"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +3646,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +3689,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="5">
+      <c r="A42" s="8">
         <v>41699</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2902,7 +3734,7 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
@@ -2945,7 +3777,7 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
@@ -7048,17 +7880,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A44"/>
@@ -7068,6 +7889,17 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7082,8 +7914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU206"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63:T66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7170,7 +8002,7 @@
         <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
         <v>17</v>
@@ -19014,7 +19846,16 @@
       </c>
     </row>
     <row r="63" spans="1:69">
-      <c r="T63" s="3"/>
+      <c r="R63">
+        <v>0.71</v>
+      </c>
+      <c r="S63">
+        <v>0.63</v>
+      </c>
+      <c r="T63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66761194029850746</v>
+      </c>
     </row>
     <row r="64" spans="1:69">
       <c r="T64" s="3"/>
@@ -19027,17 +19868,17 @@
         <v>44</v>
       </c>
       <c r="K66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE66" t="s">
         <v>51</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AO66" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="AO66" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="AP66" s="4"/>
       <c r="AQ66" s="4"/>
@@ -19048,7 +19889,7 @@
       <c r="AV66" s="4"/>
       <c r="AW66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
@@ -19059,7 +19900,7 @@
       <c r="BF66" s="4"/>
       <c r="BG66" s="4"/>
       <c r="BI66" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BJ66" s="4"/>
       <c r="BK66" s="4"/>
@@ -19321,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="3" t="e">
-        <f t="shared" ref="T68:T127" si="1">2*R68*S68/(R68+S68)</f>
+        <f t="shared" ref="T68:T131" si="1">2*R68*S68/(R68+S68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U68" t="s">
@@ -31025,10 +31866,107 @@
         <v>0.64</v>
       </c>
     </row>
+    <row r="128" spans="1:69">
+      <c r="K128" t="s">
+        <v>56</v>
+      </c>
+      <c r="L128" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>10</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37">
+      <c r="K129" t="s">
+        <v>56</v>
+      </c>
+      <c r="L129" t="s">
+        <v>10</v>
+      </c>
+      <c r="M129">
+        <v>7</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <v>3.12</v>
+      </c>
+      <c r="Q129">
+        <v>8</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T129" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72611464968152872</v>
+      </c>
+    </row>
     <row r="130" spans="1:37">
       <c r="A130" t="s">
         <v>45</v>
       </c>
+      <c r="K130" t="s">
+        <v>56</v>
+      </c>
+      <c r="L130" t="s">
+        <v>12</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="131" spans="1:37">
       <c r="A131" t="s">
@@ -31058,6 +31996,37 @@
       <c r="I131" t="s">
         <v>23</v>
       </c>
+      <c r="K131" t="s">
+        <v>56</v>
+      </c>
+      <c r="L131" t="s">
+        <v>13</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="132" spans="1:37">
       <c r="A132" t="s">
@@ -31087,6 +32056,37 @@
       <c r="I132">
         <v>0</v>
       </c>
+      <c r="K132" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M132" s="3">
+        <v>8</v>
+      </c>
+      <c r="N132" s="3">
+        <v>21</v>
+      </c>
+      <c r="O132" s="3">
+        <v>4</v>
+      </c>
+      <c r="P132" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>8</v>
+      </c>
+      <c r="R132" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="S132" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T132" s="3">
+        <f t="shared" ref="T132:T142" si="2">2*R132*S132/(R132+S132)</f>
+        <v>0.27536231884057971</v>
+      </c>
     </row>
     <row r="133" spans="1:37">
       <c r="A133" t="s">
@@ -31116,6 +32116,37 @@
       <c r="I133">
         <v>0.83</v>
       </c>
+      <c r="K133" t="s">
+        <v>57</v>
+      </c>
+      <c r="L133" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>6</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>2.95</v>
+      </c>
+      <c r="Q133">
+        <v>22</v>
+      </c>
+      <c r="R133">
+        <v>0.17</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29059829059829062</v>
+      </c>
     </row>
     <row r="134" spans="1:37">
       <c r="A134" t="s">
@@ -31145,6 +32176,37 @@
       <c r="I134">
         <v>0</v>
       </c>
+      <c r="K134" t="s">
+        <v>57</v>
+      </c>
+      <c r="L134" t="s">
+        <v>10</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134">
+        <v>2</v>
+      </c>
+      <c r="P134">
+        <v>3.04</v>
+      </c>
+      <c r="Q134">
+        <v>2.5</v>
+      </c>
+      <c r="R134">
+        <v>0.5</v>
+      </c>
+      <c r="S134">
+        <v>0.5</v>
+      </c>
+      <c r="T134" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="135" spans="1:37">
       <c r="A135" t="s">
@@ -31174,6 +32236,37 @@
       <c r="I135">
         <v>0</v>
       </c>
+      <c r="K135" t="s">
+        <v>57</v>
+      </c>
+      <c r="L135" t="s">
+        <v>12</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>3.33</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>0.25</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="T135" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="136" spans="1:37">
       <c r="A136" s="3" t="s">
@@ -31203,6 +32296,37 @@
       <c r="I136" s="3">
         <v>0.83</v>
       </c>
+      <c r="K136" t="s">
+        <v>57</v>
+      </c>
+      <c r="L136" t="s">
+        <v>13</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="137" spans="1:37">
       <c r="A137" t="s">
@@ -31232,6 +32356,37 @@
       <c r="I137">
         <v>0</v>
       </c>
+      <c r="K137" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M137" s="3">
+        <v>6</v>
+      </c>
+      <c r="N137" s="3">
+        <v>15</v>
+      </c>
+      <c r="O137" s="3">
+        <v>4</v>
+      </c>
+      <c r="P137" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="R137" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="S137" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="T137" s="3">
+        <f t="shared" si="2"/>
+        <v>0.38489361702127667</v>
+      </c>
     </row>
     <row r="138" spans="1:37">
       <c r="A138" t="s">
@@ -31261,6 +32416,37 @@
       <c r="I138">
         <v>0.5</v>
       </c>
+      <c r="K138" t="s">
+        <v>58</v>
+      </c>
+      <c r="L138" t="s">
+        <v>15</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="139" spans="1:37">
       <c r="A139" t="s">
@@ -31290,6 +32476,37 @@
       <c r="I139">
         <v>0</v>
       </c>
+      <c r="K139" t="s">
+        <v>58</v>
+      </c>
+      <c r="L139" t="s">
+        <v>10</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139">
+        <v>3.27</v>
+      </c>
+      <c r="Q139">
+        <v>3.67</v>
+      </c>
+      <c r="R139">
+        <v>0.75</v>
+      </c>
+      <c r="S139">
+        <v>0.75</v>
+      </c>
+      <c r="T139" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="140" spans="1:37">
       <c r="A140" t="s">
@@ -31319,6 +32536,37 @@
       <c r="I140">
         <v>0</v>
       </c>
+      <c r="K140" t="s">
+        <v>58</v>
+      </c>
+      <c r="L140" t="s">
+        <v>12</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>2.76</v>
+      </c>
+      <c r="Q140">
+        <v>11</v>
+      </c>
+      <c r="R140">
+        <v>0.2</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="T140" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
     </row>
     <row r="141" spans="1:37">
       <c r="A141" s="3" t="s">
@@ -31348,8 +32596,17 @@
       <c r="I141" s="3">
         <v>0.5</v>
       </c>
-      <c r="N141" t="s">
-        <v>15</v>
+      <c r="K141" t="s">
+        <v>58</v>
+      </c>
+      <c r="L141" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -31357,11 +32614,18 @@
       <c r="P141">
         <v>0</v>
       </c>
-      <c r="S141" t="s">
-        <v>15</v>
-      </c>
-      <c r="T141">
-        <v>0</v>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="U141">
         <v>0</v>
@@ -31416,20 +32680,36 @@
       <c r="I142">
         <v>0</v>
       </c>
-      <c r="N142" t="s">
-        <v>10</v>
-      </c>
-      <c r="O142">
-        <v>3.24</v>
-      </c>
-      <c r="P142">
-        <v>3.33</v>
-      </c>
-      <c r="S142" t="s">
-        <v>46</v>
-      </c>
-      <c r="T142">
-        <v>0</v>
+      <c r="K142" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M142" s="3">
+        <v>5</v>
+      </c>
+      <c r="N142" s="3">
+        <v>14</v>
+      </c>
+      <c r="O142" s="3">
+        <v>4</v>
+      </c>
+      <c r="P142" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="R142" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S142" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="T142" s="3">
+        <f t="shared" si="2"/>
+        <v>0.42568807339449533</v>
       </c>
       <c r="U142">
         <v>0</v>
@@ -31562,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T144">
         <v>3.33</v>
@@ -31698,7 +32978,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T146">
         <v>0</v>
@@ -31834,7 +33114,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T148">
         <v>0</v>
@@ -34570,6 +35850,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -34581,16 +35862,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="8">
+      <c r="B1" s="5">
         <v>41652</v>
       </c>
       <c r="C1">
@@ -34622,7 +35903,7 @@
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>41683</v>
       </c>
       <c r="C2">
@@ -34654,7 +35935,7 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>41711</v>
       </c>
       <c r="C3">
@@ -34686,7 +35967,7 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>41742</v>
       </c>
       <c r="C4">
@@ -34718,7 +35999,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>41772</v>
       </c>
       <c r="C5">
@@ -34750,7 +36031,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>41803</v>
       </c>
       <c r="C6">
@@ -34782,7 +36063,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>41833</v>
       </c>
       <c r="C7">
@@ -34814,7 +36095,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>41864</v>
       </c>
       <c r="C8">
@@ -34846,7 +36127,7 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>41895</v>
       </c>
       <c r="C9">
@@ -34878,7 +36159,7 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>41925</v>
       </c>
       <c r="C10">
@@ -34910,7 +36191,7 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>41956</v>
       </c>
       <c r="C11">
@@ -34942,7 +36223,7 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>41986</v>
       </c>
       <c r="C12">
@@ -34971,6 +36252,984 @@
       </c>
       <c r="K12">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5">
+        <v>41653</v>
+      </c>
+      <c r="C13">
+        <v>0.65</v>
+      </c>
+      <c r="D13">
+        <v>0.49</v>
+      </c>
+      <c r="E13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.19</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.71</v>
+      </c>
+      <c r="J13">
+        <v>0.63</v>
+      </c>
+      <c r="K13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="5">
+        <v>41684</v>
+      </c>
+      <c r="C14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.74</v>
+      </c>
+      <c r="E14">
+        <v>0.64</v>
+      </c>
+      <c r="F14">
+        <v>0.27</v>
+      </c>
+      <c r="G14">
+        <v>0.67</v>
+      </c>
+      <c r="H14">
+        <v>0.38</v>
+      </c>
+      <c r="I14">
+        <v>0.67</v>
+      </c>
+      <c r="J14">
+        <v>0.67</v>
+      </c>
+      <c r="K14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5">
+        <v>41712</v>
+      </c>
+      <c r="C15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.88</v>
+      </c>
+      <c r="E15">
+        <v>0.68</v>
+      </c>
+      <c r="F15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.8</v>
+      </c>
+      <c r="H15">
+        <v>0.42</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0.8</v>
+      </c>
+      <c r="K15">
+        <f>2*J15*I15/(I15+J15)</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19">
+        <f>I1-C1</f>
+        <v>-0.06</v>
+      </c>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <f>J1-D1</f>
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f>K1-E1</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I19">
+        <v>12.5</v>
+      </c>
+      <c r="M19">
+        <f>I1-F1</f>
+        <v>0.31</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <f>J1-G1</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>K1-H1</f>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="R19">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="D20">
+        <f t="shared" ref="D20:D34" si="0">I2-C2</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20">
+        <f>J2-D2</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <f>K2-E2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <f>I2-F2</f>
+        <v>0.38</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O33" si="1">J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q33" si="2">K2-H2</f>
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="R20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>J3-D3</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <f>K3-E3</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f>I3-F3</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="N21">
+        <v>5.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.21000000000000008</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <f>J4-D4</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <f>K4-E4</f>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <f>I4-F4</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.13</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f>J5-D5</f>
+        <v>0.12</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f>K5-E5</f>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <f>I5-F5</f>
+        <v>0.24</v>
+      </c>
+      <c r="N23">
+        <v>7.5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="R23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f>J6-D6</f>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="G24">
+        <v>8.5</v>
+      </c>
+      <c r="H24">
+        <f>K6-E6</f>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <f>I6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <f>J7-D7</f>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="G25">
+        <v>8.5</v>
+      </c>
+      <c r="H25">
+        <f>K7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>I7-F7</f>
+        <v>0.06</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <f>J8-D8</f>
+        <v>0.4</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <f>K8-E8</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="I26" s="9">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <f>I8-F8</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="R26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f>J9-D9</f>
+        <v>0.34</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <f>K9-E9</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I27" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="M27">
+        <f>I9-F9</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>-0.32999999999999996</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-0.24</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <f>J10-D10</f>
+        <v>0.36</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <f>K10-E10</f>
+        <v>0.12</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <f>I10-F10</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000007</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999962E-2</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-0.44</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <f>J11-D11</f>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <f>K11-E11</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f>I11-F11</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="N29">
+        <v>7.5</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-0.22999999999999998</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <f>J12-D12</f>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <f>K12-E12</f>
+        <v>0.13</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <f>I12-F12</f>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="E31">
+        <v>4.5</v>
+      </c>
+      <c r="F31">
+        <f>J13-D13</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <f>K13-E13</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <f>I13-F13</f>
+        <v>0.52</v>
+      </c>
+      <c r="N31">
+        <v>14</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>0.39</v>
+      </c>
+      <c r="R31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <f>J14-D14</f>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>K14-E14</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f>I14-F14</f>
+        <v>0.4</v>
+      </c>
+      <c r="N32">
+        <v>11</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <f>J15-D15</f>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <f>K15-E15</f>
+        <v>-6.461538461538463E-2</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <f>I15-F15</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="N33">
+        <v>5.5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>0.19538461538461543</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <f>E26+E27+E31+E32</f>
+        <v>33.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <f>SUM(G19:G31)</f>
+        <v>117</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35">
+        <f>SUM(I19:I22)+I26+I27+I28+I30+I31+I32</f>
+        <v>83</v>
+      </c>
+      <c r="M35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35">
+        <f>N19+N20+N21+N23+N25+N26+N27+N28+N29+N31+N32+N33</f>
+        <v>100</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35">
+        <f>3+5+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R19:R29) +R31+R32+R33</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <f>E19+SUM(E20:E25)+E28+E29+E30+E33</f>
+        <v>84.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f>I23+I24+I29+I33</f>
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36">
+        <f>N22+N30</f>
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>60</v>
+      </c>
+      <c r="R36">
+        <f>R30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18">
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>29.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>67</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18">
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <f>D35-D36</f>
+        <v>-51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39">
+        <f>G35-3</f>
+        <v>114</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39">
+        <f>J35-J36</f>
+        <v>61</v>
+      </c>
+      <c r="M39" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39">
+        <f>N35-N36</f>
+        <v>95</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>70</v>
+      </c>
+      <c r="R39">
+        <f>R35-R36</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18">
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <f>(D39-0.5)/SQRT(15*16*31/6)</f>
+        <v>-1.4625017231861919</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <f>(G39-0.5)/SQRT(15*16*31/6)</f>
+        <v>3.2231834093520928</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40">
+        <f>(J39-0.5)/SQRT(14*15*29/6)</f>
+        <v>1.8989885822373922</v>
+      </c>
+      <c r="M40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N40">
+        <f>(N39-0.5)/SQRT(14*15*29/6)</f>
+        <v>2.9661887772137776</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>68</v>
+      </c>
+      <c r="R40">
+        <f>(R39-0.5)/SQRT(14*15*29/6)</f>
+        <v>3.1545182233860811</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18">
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -34982,4 +37241,3427 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10">
+        <v>41287</v>
+      </c>
+      <c r="B4">
+        <v>3.07</v>
+      </c>
+      <c r="C4">
+        <v>3.27</v>
+      </c>
+      <c r="D4">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10">
+        <v>41318</v>
+      </c>
+      <c r="B5">
+        <v>2.82</v>
+      </c>
+      <c r="C5">
+        <v>3.24</v>
+      </c>
+      <c r="D5">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
+        <v>41346</v>
+      </c>
+      <c r="B6">
+        <v>2.63</v>
+      </c>
+      <c r="C6">
+        <v>2.91</v>
+      </c>
+      <c r="D6">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10">
+        <v>41377</v>
+      </c>
+      <c r="B7">
+        <v>2.81</v>
+      </c>
+      <c r="C7">
+        <v>3.08</v>
+      </c>
+      <c r="D7">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10">
+        <v>41407</v>
+      </c>
+      <c r="B8">
+        <v>2.83</v>
+      </c>
+      <c r="C8">
+        <v>3.15</v>
+      </c>
+      <c r="D8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <v>41438</v>
+      </c>
+      <c r="B9">
+        <v>1.76</v>
+      </c>
+      <c r="C9">
+        <v>2.95</v>
+      </c>
+      <c r="D9">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>41468</v>
+      </c>
+      <c r="B10">
+        <v>1.76</v>
+      </c>
+      <c r="C10">
+        <v>3.15</v>
+      </c>
+      <c r="D10">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
+        <v>41499</v>
+      </c>
+      <c r="B11">
+        <v>2.14</v>
+      </c>
+      <c r="C11">
+        <v>3.04</v>
+      </c>
+      <c r="D11">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>41530</v>
+      </c>
+      <c r="B12">
+        <v>2.09</v>
+      </c>
+      <c r="C12">
+        <v>2.87</v>
+      </c>
+      <c r="D12">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10">
+        <v>41560</v>
+      </c>
+      <c r="B13">
+        <v>2.66</v>
+      </c>
+      <c r="C13">
+        <v>3.05</v>
+      </c>
+      <c r="D13">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
+        <v>41591</v>
+      </c>
+      <c r="B14">
+        <v>2.76</v>
+      </c>
+      <c r="C14">
+        <v>2.88</v>
+      </c>
+      <c r="D14">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10">
+        <v>41621</v>
+      </c>
+      <c r="B15">
+        <v>2.89</v>
+      </c>
+      <c r="C15">
+        <v>3.05</v>
+      </c>
+      <c r="D15">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10">
+        <v>41653</v>
+      </c>
+      <c r="B16">
+        <v>2.99</v>
+      </c>
+      <c r="C16">
+        <v>3.12</v>
+      </c>
+      <c r="D16">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10">
+        <v>41684</v>
+      </c>
+      <c r="B17">
+        <v>2.85</v>
+      </c>
+      <c r="C17">
+        <v>3.09</v>
+      </c>
+      <c r="D17">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10">
+        <v>41712</v>
+      </c>
+      <c r="B18">
+        <v>2.88</v>
+      </c>
+      <c r="C18">
+        <v>3.13</v>
+      </c>
+      <c r="D18">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
+        <v>41652</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>6.75</v>
+      </c>
+      <c r="D24">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
+        <v>41683</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>41711</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>41742</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>5.67</v>
+      </c>
+      <c r="D27">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>41772</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>41803</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>41833</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
+        <v>41864</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5">
+        <v>41895</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>7.33</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5">
+        <v>41925</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10.75</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
+        <v>41956</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>6.8</v>
+      </c>
+      <c r="D34">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5">
+        <v>41986</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>8.5</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
+        <v>41653</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
+        <v>41684</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>7.75</v>
+      </c>
+      <c r="D37">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5">
+        <v>41712</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>5.5</v>
+      </c>
+      <c r="D38">
+        <v>7.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N273"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>0.85714285714299998</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M2" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6">
+        <v>0.76190476190500001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7">
+        <v>0.23809523809499999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>0.85714285714299998</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11">
+        <v>0.28571428571399998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13">
+        <v>0.52380952381000001</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="M15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16">
+        <v>0.85714285714299998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17">
+        <v>0.71428571428599996</v>
+      </c>
+      <c r="M17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18">
+        <v>0.61904761904799999</v>
+      </c>
+      <c r="M18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="M19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19">
+        <v>0.33333333333300003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20">
+        <v>0.71428571428599996</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20">
+        <v>0.77777777777799995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22">
+        <v>0.80952380952400005</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22">
+        <v>0.33333333333300003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="M23" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23">
+        <v>0.14285714285699999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24">
+        <v>0.85714285714299998</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24">
+        <v>0.61904761904799999</v>
+      </c>
+      <c r="M24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24">
+        <v>0.28571428571399998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25">
+        <v>0.71428571428599996</v>
+      </c>
+      <c r="M25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25">
+        <v>0.19047619047600001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26">
+        <v>0.71428571428599996</v>
+      </c>
+      <c r="M26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>0.80952380952400005</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="M27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>0.19047619047600001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K36">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J37" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J38" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J39" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J46" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="J47" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J48" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48">
+        <v>0.85714285714299998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J49" t="s">
+        <v>195</v>
+      </c>
+      <c r="K49">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J50" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51">
+        <v>0.90476190476200002</v>
+      </c>
+      <c r="J51" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J52" t="s">
+        <v>162</v>
+      </c>
+      <c r="K52">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J53" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53">
+        <v>0.76190476190500001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J55" t="s">
+        <v>198</v>
+      </c>
+      <c r="K55">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J56" t="s">
+        <v>199</v>
+      </c>
+      <c r="K56">
+        <v>0.76190476190500001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J57" t="s">
+        <v>200</v>
+      </c>
+      <c r="K57">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J58" t="s">
+        <v>201</v>
+      </c>
+      <c r="K58">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59">
+        <v>0.95238095238099996</v>
+      </c>
+      <c r="J59" t="s">
+        <v>169</v>
+      </c>
+      <c r="K59">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="J60" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="J61" t="s">
+        <v>203</v>
+      </c>
+      <c r="K61">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="J62" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="J63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" t="s">
+        <v>207</v>
+      </c>
+      <c r="K65">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66" t="s">
+        <v>208</v>
+      </c>
+      <c r="K66">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68" t="s">
+        <v>161</v>
+      </c>
+      <c r="K68">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" t="s">
+        <v>172</v>
+      </c>
+      <c r="K69">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70" t="s">
+        <v>210</v>
+      </c>
+      <c r="K70">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71" t="s">
+        <v>173</v>
+      </c>
+      <c r="K71">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72" t="s">
+        <v>164</v>
+      </c>
+      <c r="K72">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" t="s">
+        <v>211</v>
+      </c>
+      <c r="K74">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" t="s">
+        <v>160</v>
+      </c>
+      <c r="K75">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76" t="s">
+        <v>212</v>
+      </c>
+      <c r="K76">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77" t="s">
+        <v>213</v>
+      </c>
+      <c r="K77">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78" t="s">
+        <v>214</v>
+      </c>
+      <c r="K78">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" t="s">
+        <v>215</v>
+      </c>
+      <c r="K79">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80" t="s">
+        <v>216</v>
+      </c>
+      <c r="K80">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" t="s">
+        <v>217</v>
+      </c>
+      <c r="K81">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" t="s">
+        <v>218</v>
+      </c>
+      <c r="K82">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83" t="s">
+        <v>158</v>
+      </c>
+      <c r="K83">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84" t="s">
+        <v>219</v>
+      </c>
+      <c r="K84">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85" t="s">
+        <v>220</v>
+      </c>
+      <c r="K85">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11">
+      <c r="J86" t="s">
+        <v>161</v>
+      </c>
+      <c r="K86">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11">
+      <c r="J87" t="s">
+        <v>221</v>
+      </c>
+      <c r="K87">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11">
+      <c r="J88" t="s">
+        <v>222</v>
+      </c>
+      <c r="K88">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11">
+      <c r="J89" t="s">
+        <v>161</v>
+      </c>
+      <c r="K89">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11">
+      <c r="J90" t="s">
+        <v>159</v>
+      </c>
+      <c r="K90">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11">
+      <c r="J91" t="s">
+        <v>223</v>
+      </c>
+      <c r="K91">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11">
+      <c r="J92" t="s">
+        <v>185</v>
+      </c>
+      <c r="K92">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11">
+      <c r="J93" t="s">
+        <v>224</v>
+      </c>
+      <c r="K93">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11">
+      <c r="J94" t="s">
+        <v>225</v>
+      </c>
+      <c r="K94">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11">
+      <c r="J95" t="s">
+        <v>171</v>
+      </c>
+      <c r="K95">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11">
+      <c r="J96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K96">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11">
+      <c r="J97" t="s">
+        <v>226</v>
+      </c>
+      <c r="K97">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11">
+      <c r="J98" t="s">
+        <v>180</v>
+      </c>
+      <c r="K98">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11">
+      <c r="J99" t="s">
+        <v>227</v>
+      </c>
+      <c r="K99">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11">
+      <c r="J100" t="s">
+        <v>228</v>
+      </c>
+      <c r="K100">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11">
+      <c r="J101" t="s">
+        <v>229</v>
+      </c>
+      <c r="K101">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11">
+      <c r="J102" t="s">
+        <v>199</v>
+      </c>
+      <c r="K102">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11">
+      <c r="J103" t="s">
+        <v>90</v>
+      </c>
+      <c r="K103">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11">
+      <c r="J104" t="s">
+        <v>230</v>
+      </c>
+      <c r="K104">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11">
+      <c r="J105" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="106" spans="10:11">
+      <c r="J106" t="s">
+        <v>187</v>
+      </c>
+      <c r="K106">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11">
+      <c r="J107" t="s">
+        <v>160</v>
+      </c>
+      <c r="K107">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="108" spans="10:11">
+      <c r="J108" t="s">
+        <v>184</v>
+      </c>
+      <c r="K108">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11">
+      <c r="J109" t="s">
+        <v>232</v>
+      </c>
+      <c r="K109">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11">
+      <c r="J110" t="s">
+        <v>233</v>
+      </c>
+      <c r="K110">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11">
+      <c r="J111" t="s">
+        <v>234</v>
+      </c>
+      <c r="K111">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="112" spans="10:11">
+      <c r="J112" t="s">
+        <v>235</v>
+      </c>
+      <c r="K112">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11">
+      <c r="J113" t="s">
+        <v>103</v>
+      </c>
+      <c r="K113">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11">
+      <c r="J114" t="s">
+        <v>236</v>
+      </c>
+      <c r="K114">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11">
+      <c r="J115" t="s">
+        <v>237</v>
+      </c>
+      <c r="K115">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11">
+      <c r="J116" t="s">
+        <v>238</v>
+      </c>
+      <c r="K116">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11">
+      <c r="J117" t="s">
+        <v>239</v>
+      </c>
+      <c r="K117">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11">
+      <c r="J118" t="s">
+        <v>240</v>
+      </c>
+      <c r="K118">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="119" spans="10:11">
+      <c r="J119" t="s">
+        <v>241</v>
+      </c>
+      <c r="K119">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="120" spans="10:11">
+      <c r="J120" t="s">
+        <v>209</v>
+      </c>
+      <c r="K120">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="121" spans="10:11">
+      <c r="J121" t="s">
+        <v>170</v>
+      </c>
+      <c r="K121">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="122" spans="10:11">
+      <c r="J122" t="s">
+        <v>161</v>
+      </c>
+      <c r="K122">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11">
+      <c r="J123" t="s">
+        <v>242</v>
+      </c>
+      <c r="K123">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="124" spans="10:11">
+      <c r="J124" t="s">
+        <v>153</v>
+      </c>
+      <c r="K124">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="125" spans="10:11">
+      <c r="J125" t="s">
+        <v>175</v>
+      </c>
+      <c r="K125">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="126" spans="10:11">
+      <c r="J126" t="s">
+        <v>188</v>
+      </c>
+      <c r="K126">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="127" spans="10:11">
+      <c r="J127" t="s">
+        <v>144</v>
+      </c>
+      <c r="K127">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="128" spans="10:11">
+      <c r="J128" t="s">
+        <v>243</v>
+      </c>
+      <c r="K128">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11">
+      <c r="J129" t="s">
+        <v>173</v>
+      </c>
+      <c r="K129">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="130" spans="10:11">
+      <c r="J130" t="s">
+        <v>244</v>
+      </c>
+      <c r="K130">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11">
+      <c r="J131" t="s">
+        <v>162</v>
+      </c>
+      <c r="K131">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11">
+      <c r="J132" t="s">
+        <v>245</v>
+      </c>
+      <c r="K132">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="133" spans="10:11">
+      <c r="J133" t="s">
+        <v>246</v>
+      </c>
+      <c r="K133">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="134" spans="10:11">
+      <c r="J134" t="s">
+        <v>247</v>
+      </c>
+      <c r="K134">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11">
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+      <c r="K135">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11">
+      <c r="J136" t="s">
+        <v>192</v>
+      </c>
+      <c r="K136">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11">
+      <c r="J137" t="s">
+        <v>145</v>
+      </c>
+      <c r="K137">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="138" spans="10:11">
+      <c r="J138" t="s">
+        <v>221</v>
+      </c>
+      <c r="K138">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="139" spans="10:11">
+      <c r="J139" t="s">
+        <v>248</v>
+      </c>
+      <c r="K139">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="140" spans="10:11">
+      <c r="J140" t="s">
+        <v>164</v>
+      </c>
+      <c r="K140">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="141" spans="10:11">
+      <c r="J141" t="s">
+        <v>123</v>
+      </c>
+      <c r="K141">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="142" spans="10:11">
+      <c r="J142" t="s">
+        <v>249</v>
+      </c>
+      <c r="K142">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="143" spans="10:11">
+      <c r="J143" t="s">
+        <v>104</v>
+      </c>
+      <c r="K143">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="144" spans="10:11">
+      <c r="J144" t="s">
+        <v>250</v>
+      </c>
+      <c r="K144">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="145" spans="10:11">
+      <c r="J145" t="s">
+        <v>251</v>
+      </c>
+      <c r="K145">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="146" spans="10:11">
+      <c r="J146" t="s">
+        <v>252</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="10:11">
+      <c r="J147" t="s">
+        <v>253</v>
+      </c>
+      <c r="K147">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="148" spans="10:11">
+      <c r="J148" t="s">
+        <v>254</v>
+      </c>
+      <c r="K148">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="149" spans="10:11">
+      <c r="J149" t="s">
+        <v>214</v>
+      </c>
+      <c r="K149">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="150" spans="10:11">
+      <c r="J150" t="s">
+        <v>255</v>
+      </c>
+      <c r="K150">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="151" spans="10:11">
+      <c r="J151" t="s">
+        <v>256</v>
+      </c>
+      <c r="K151">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="152" spans="10:11">
+      <c r="J152" t="s">
+        <v>257</v>
+      </c>
+      <c r="K152">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="153" spans="10:11">
+      <c r="J153" t="s">
+        <v>216</v>
+      </c>
+      <c r="K153">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="154" spans="10:11">
+      <c r="J154" t="s">
+        <v>194</v>
+      </c>
+      <c r="K154">
+        <v>0.85714285714299998</v>
+      </c>
+    </row>
+    <row r="155" spans="10:11">
+      <c r="J155" t="s">
+        <v>258</v>
+      </c>
+      <c r="K155">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="156" spans="10:11">
+      <c r="J156" t="s">
+        <v>198</v>
+      </c>
+      <c r="K156">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="157" spans="10:11">
+      <c r="J157" t="s">
+        <v>161</v>
+      </c>
+      <c r="K157">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="158" spans="10:11">
+      <c r="J158" t="s">
+        <v>245</v>
+      </c>
+      <c r="K158">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="159" spans="10:11">
+      <c r="J159" t="s">
+        <v>160</v>
+      </c>
+      <c r="K159">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="160" spans="10:11">
+      <c r="J160" t="s">
+        <v>161</v>
+      </c>
+      <c r="K160">
+        <v>0.85714285714299998</v>
+      </c>
+    </row>
+    <row r="161" spans="10:11">
+      <c r="J161" t="s">
+        <v>185</v>
+      </c>
+      <c r="K161">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="162" spans="10:11">
+      <c r="J162" t="s">
+        <v>259</v>
+      </c>
+      <c r="K162">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="163" spans="10:11">
+      <c r="J163" t="s">
+        <v>260</v>
+      </c>
+      <c r="K163">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="164" spans="10:11">
+      <c r="J164" t="s">
+        <v>168</v>
+      </c>
+      <c r="K164">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="165" spans="10:11">
+      <c r="J165" t="s">
+        <v>261</v>
+      </c>
+      <c r="K165">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="166" spans="10:11">
+      <c r="J166" t="s">
+        <v>262</v>
+      </c>
+      <c r="K166">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="167" spans="10:11">
+      <c r="J167" t="s">
+        <v>263</v>
+      </c>
+      <c r="K167">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="168" spans="10:11">
+      <c r="J168" t="s">
+        <v>260</v>
+      </c>
+      <c r="K168">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="169" spans="10:11">
+      <c r="J169" t="s">
+        <v>237</v>
+      </c>
+      <c r="K169">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="170" spans="10:11">
+      <c r="J170" t="s">
+        <v>264</v>
+      </c>
+      <c r="K170">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="171" spans="10:11">
+      <c r="J171" t="s">
+        <v>206</v>
+      </c>
+      <c r="K171">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="172" spans="10:11">
+      <c r="J172" t="s">
+        <v>161</v>
+      </c>
+      <c r="K172">
+        <v>0.76190476190500001</v>
+      </c>
+    </row>
+    <row r="173" spans="10:11">
+      <c r="J173" t="s">
+        <v>265</v>
+      </c>
+      <c r="K173">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="174" spans="10:11">
+      <c r="J174" t="s">
+        <v>266</v>
+      </c>
+      <c r="K174">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="175" spans="10:11">
+      <c r="J175" t="s">
+        <v>160</v>
+      </c>
+      <c r="K175">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="176" spans="10:11">
+      <c r="J176" t="s">
+        <v>161</v>
+      </c>
+      <c r="K176">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="177" spans="10:11">
+      <c r="J177" t="s">
+        <v>267</v>
+      </c>
+      <c r="K177">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="178" spans="10:11">
+      <c r="J178" t="s">
+        <v>268</v>
+      </c>
+      <c r="K178">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="179" spans="10:11">
+      <c r="J179" t="s">
+        <v>158</v>
+      </c>
+      <c r="K179">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="180" spans="10:11">
+      <c r="J180" t="s">
+        <v>269</v>
+      </c>
+      <c r="K180">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="181" spans="10:11">
+      <c r="J181" t="s">
+        <v>270</v>
+      </c>
+      <c r="K181">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="182" spans="10:11">
+      <c r="J182" t="s">
+        <v>261</v>
+      </c>
+      <c r="K182">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="183" spans="10:11">
+      <c r="J183" t="s">
+        <v>271</v>
+      </c>
+      <c r="K183">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="184" spans="10:11">
+      <c r="J184" t="s">
+        <v>214</v>
+      </c>
+      <c r="K184">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="185" spans="10:11">
+      <c r="J185" t="s">
+        <v>208</v>
+      </c>
+      <c r="K185">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="186" spans="10:11">
+      <c r="J186" t="s">
+        <v>218</v>
+      </c>
+      <c r="K186">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="187" spans="10:11">
+      <c r="J187" t="s">
+        <v>272</v>
+      </c>
+      <c r="K187">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="188" spans="10:11">
+      <c r="J188" t="s">
+        <v>197</v>
+      </c>
+      <c r="K188">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="189" spans="10:11">
+      <c r="J189" t="s">
+        <v>161</v>
+      </c>
+      <c r="K189">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="190" spans="10:11">
+      <c r="J190" t="s">
+        <v>273</v>
+      </c>
+      <c r="K190">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="191" spans="10:11">
+      <c r="J191" t="s">
+        <v>274</v>
+      </c>
+      <c r="K191">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="192" spans="10:11">
+      <c r="J192" t="s">
+        <v>212</v>
+      </c>
+      <c r="K192">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="193" spans="10:11">
+      <c r="J193" t="s">
+        <v>275</v>
+      </c>
+      <c r="K193">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="194" spans="10:11">
+      <c r="J194" t="s">
+        <v>161</v>
+      </c>
+      <c r="K194">
+        <v>0.76190476190500001</v>
+      </c>
+    </row>
+    <row r="195" spans="10:11">
+      <c r="J195" t="s">
+        <v>276</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="10:11">
+      <c r="J196" t="s">
+        <v>222</v>
+      </c>
+      <c r="K196">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="197" spans="10:11">
+      <c r="J197" t="s">
+        <v>161</v>
+      </c>
+      <c r="K197">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="198" spans="10:11">
+      <c r="J198" t="s">
+        <v>159</v>
+      </c>
+      <c r="K198">
+        <v>0.52380952381000001</v>
+      </c>
+    </row>
+    <row r="199" spans="10:11">
+      <c r="J199" t="s">
+        <v>209</v>
+      </c>
+      <c r="K199">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="200" spans="10:11">
+      <c r="J200" t="s">
+        <v>164</v>
+      </c>
+      <c r="K200">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="201" spans="10:11">
+      <c r="J201" t="s">
+        <v>161</v>
+      </c>
+      <c r="K201">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="202" spans="10:11">
+      <c r="J202" t="s">
+        <v>185</v>
+      </c>
+      <c r="K202">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="203" spans="10:11">
+      <c r="J203" t="s">
+        <v>171</v>
+      </c>
+      <c r="K203">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="204" spans="10:11">
+      <c r="J204" t="s">
+        <v>277</v>
+      </c>
+      <c r="K204">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="205" spans="10:11">
+      <c r="J205" t="s">
+        <v>172</v>
+      </c>
+      <c r="K205">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="206" spans="10:11">
+      <c r="J206" t="s">
+        <v>227</v>
+      </c>
+      <c r="K206">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="207" spans="10:11">
+      <c r="J207" t="s">
+        <v>158</v>
+      </c>
+      <c r="K207">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="208" spans="10:11">
+      <c r="J208" t="s">
+        <v>278</v>
+      </c>
+      <c r="K208">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="209" spans="10:11">
+      <c r="J209" t="s">
+        <v>173</v>
+      </c>
+      <c r="K209">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="210" spans="10:11">
+      <c r="J210" t="s">
+        <v>198</v>
+      </c>
+      <c r="K210">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="211" spans="10:11">
+      <c r="J211" t="s">
+        <v>216</v>
+      </c>
+      <c r="K211">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="212" spans="10:11">
+      <c r="J212" t="s">
+        <v>279</v>
+      </c>
+      <c r="K212">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="213" spans="10:11">
+      <c r="J213" t="s">
+        <v>280</v>
+      </c>
+      <c r="K213">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="214" spans="10:11">
+      <c r="J214" t="s">
+        <v>281</v>
+      </c>
+      <c r="K214">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="215" spans="10:11">
+      <c r="J215" t="s">
+        <v>282</v>
+      </c>
+      <c r="K215">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="216" spans="10:11">
+      <c r="J216" t="s">
+        <v>161</v>
+      </c>
+      <c r="K216">
+        <v>0.80952380952400005</v>
+      </c>
+    </row>
+    <row r="217" spans="10:11">
+      <c r="J217" t="s">
+        <v>283</v>
+      </c>
+      <c r="K217">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="218" spans="10:11">
+      <c r="J218" t="s">
+        <v>206</v>
+      </c>
+      <c r="K218">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="10:11">
+      <c r="J219" t="s">
+        <v>161</v>
+      </c>
+      <c r="K219">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="220" spans="10:11">
+      <c r="J220" t="s">
+        <v>159</v>
+      </c>
+      <c r="K220">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="221" spans="10:11">
+      <c r="J221" t="s">
+        <v>284</v>
+      </c>
+      <c r="K221">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="222" spans="10:11">
+      <c r="J222" t="s">
+        <v>170</v>
+      </c>
+      <c r="K222">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="223" spans="10:11">
+      <c r="J223" t="s">
+        <v>285</v>
+      </c>
+      <c r="K223">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="224" spans="10:11">
+      <c r="J224" t="s">
+        <v>161</v>
+      </c>
+      <c r="K224">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="225" spans="10:11">
+      <c r="J225" t="s">
+        <v>286</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="10:11">
+      <c r="J226" t="s">
+        <v>171</v>
+      </c>
+      <c r="K226">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="227" spans="10:11">
+      <c r="J227" t="s">
+        <v>287</v>
+      </c>
+      <c r="K227">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="228" spans="10:11">
+      <c r="J228" t="s">
+        <v>288</v>
+      </c>
+      <c r="K228">
+        <v>0.57142857142900005</v>
+      </c>
+    </row>
+    <row r="229" spans="10:11">
+      <c r="J229" t="s">
+        <v>283</v>
+      </c>
+      <c r="K229">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="230" spans="10:11">
+      <c r="J230" t="s">
+        <v>196</v>
+      </c>
+      <c r="K230">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="231" spans="10:11">
+      <c r="J231" t="s">
+        <v>205</v>
+      </c>
+      <c r="K231">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="232" spans="10:11">
+      <c r="J232" t="s">
+        <v>198</v>
+      </c>
+      <c r="K232">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="233" spans="10:11">
+      <c r="J233" t="s">
+        <v>235</v>
+      </c>
+      <c r="K233">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="234" spans="10:11">
+      <c r="J234" t="s">
+        <v>209</v>
+      </c>
+      <c r="K234">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="235" spans="10:11">
+      <c r="J235" t="s">
+        <v>216</v>
+      </c>
+      <c r="K235">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="236" spans="10:11">
+      <c r="J236" t="s">
+        <v>160</v>
+      </c>
+      <c r="K236">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="237" spans="10:11">
+      <c r="J237" t="s">
+        <v>289</v>
+      </c>
+      <c r="K237">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="238" spans="10:11">
+      <c r="J238" t="s">
+        <v>248</v>
+      </c>
+      <c r="K238">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="239" spans="10:11">
+      <c r="J239" t="s">
+        <v>209</v>
+      </c>
+      <c r="K239">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="240" spans="10:11">
+      <c r="J240" t="s">
+        <v>161</v>
+      </c>
+      <c r="K240">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="241" spans="10:11">
+      <c r="J241" t="s">
+        <v>171</v>
+      </c>
+      <c r="K241">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="242" spans="10:11">
+      <c r="J242" t="s">
+        <v>172</v>
+      </c>
+      <c r="K242">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="243" spans="10:11">
+      <c r="J243" t="s">
+        <v>204</v>
+      </c>
+      <c r="K243">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="244" spans="10:11">
+      <c r="J244" t="s">
+        <v>162</v>
+      </c>
+      <c r="K244">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="245" spans="10:11">
+      <c r="J245" t="s">
+        <v>158</v>
+      </c>
+      <c r="K245">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="246" spans="10:11">
+      <c r="J246" t="s">
+        <v>290</v>
+      </c>
+      <c r="K246">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="247" spans="10:11">
+      <c r="J247" t="s">
+        <v>198</v>
+      </c>
+      <c r="K247">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="248" spans="10:11">
+      <c r="J248" t="s">
+        <v>291</v>
+      </c>
+      <c r="K248">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="249" spans="10:11">
+      <c r="J249" t="s">
+        <v>258</v>
+      </c>
+      <c r="K249">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="250" spans="10:11">
+      <c r="J250" t="s">
+        <v>208</v>
+      </c>
+      <c r="K250">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="251" spans="10:11">
+      <c r="J251" t="s">
+        <v>292</v>
+      </c>
+      <c r="K251">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="252" spans="10:11">
+      <c r="J252" t="s">
+        <v>279</v>
+      </c>
+      <c r="K252">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="253" spans="10:11">
+      <c r="J253" t="s">
+        <v>188</v>
+      </c>
+      <c r="K253">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="254" spans="10:11">
+      <c r="J254" t="s">
+        <v>293</v>
+      </c>
+      <c r="K254">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="255" spans="10:11">
+      <c r="J255" t="s">
+        <v>198</v>
+      </c>
+      <c r="K255">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="256" spans="10:11">
+      <c r="J256" t="s">
+        <v>209</v>
+      </c>
+      <c r="K256">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="257" spans="10:11">
+      <c r="J257" t="s">
+        <v>170</v>
+      </c>
+      <c r="K257">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="258" spans="10:11">
+      <c r="J258" t="s">
+        <v>161</v>
+      </c>
+      <c r="K258">
+        <v>0.71428571428599996</v>
+      </c>
+    </row>
+    <row r="259" spans="10:11">
+      <c r="J259" t="s">
+        <v>294</v>
+      </c>
+      <c r="K259">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="260" spans="10:11">
+      <c r="J260" t="s">
+        <v>159</v>
+      </c>
+      <c r="K260">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="261" spans="10:11">
+      <c r="J261" t="s">
+        <v>295</v>
+      </c>
+      <c r="K261">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="262" spans="10:11">
+      <c r="J262" t="s">
+        <v>296</v>
+      </c>
+      <c r="K262">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="263" spans="10:11">
+      <c r="J263" t="s">
+        <v>171</v>
+      </c>
+      <c r="K263">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="264" spans="10:11">
+      <c r="J264" t="s">
+        <v>162</v>
+      </c>
+      <c r="K264">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="265" spans="10:11">
+      <c r="J265" t="s">
+        <v>180</v>
+      </c>
+      <c r="K265">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="266" spans="10:11">
+      <c r="J266" t="s">
+        <v>278</v>
+      </c>
+      <c r="K266">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="267" spans="10:11">
+      <c r="J267" t="s">
+        <v>173</v>
+      </c>
+      <c r="K267">
+        <v>0.61904761904799999</v>
+      </c>
+    </row>
+    <row r="268" spans="10:11">
+      <c r="J268" t="s">
+        <v>297</v>
+      </c>
+      <c r="K268">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="269" spans="10:11">
+      <c r="J269" t="s">
+        <v>246</v>
+      </c>
+      <c r="K269">
+        <v>0.47619047618999999</v>
+      </c>
+    </row>
+    <row r="270" spans="10:11">
+      <c r="J270" t="s">
+        <v>298</v>
+      </c>
+      <c r="K270">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="271" spans="10:11">
+      <c r="J271" t="s">
+        <v>235</v>
+      </c>
+      <c r="K271">
+        <v>0.95238095238099996</v>
+      </c>
+    </row>
+    <row r="272" spans="10:11">
+      <c r="J272" t="s">
+        <v>279</v>
+      </c>
+      <c r="K272">
+        <v>0.90476190476200002</v>
+      </c>
+    </row>
+    <row r="273" spans="10:11">
+      <c r="J273" t="s">
+        <v>299</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B26">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/Result_theo.xlsx
+++ b/data/Result_theo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14060" activeTab="4"/>
+    <workbookView xWindow="-18100" yWindow="1600" windowWidth="25600" windowHeight="14060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="302">
   <si>
     <t>Month</t>
   </si>
@@ -927,6 +927,9 @@
   <si>
     <t>ww.lanacion.cl</t>
   </si>
+  <si>
+    <t>sstat keyword</t>
+  </si>
 </sst>
 </file>
 
@@ -990,8 +993,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1130,19 +1135,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1206,6 +1211,7 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1269,6 +1275,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1521,11 +1528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2078805672"/>
-        <c:axId val="2075989912"/>
+        <c:axId val="546621464"/>
+        <c:axId val="546915416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078805672"/>
+        <c:axId val="546621464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075989912"/>
+        <c:crossAx val="546915416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1542,7 +1549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075989912"/>
+        <c:axId val="546915416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,14 +1560,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078805672"/>
+        <c:crossAx val="546621464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1906,37 +1912,37 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1984,7 +1990,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>41275</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2029,7 +2035,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2123,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2160,7 +2166,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>41699</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2205,7 +2211,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2254,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2379,7 +2385,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2510,7 +2516,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2559,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="7"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2641,7 +2647,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2729,7 +2735,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2817,7 +2823,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="7"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2860,7 +2866,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2954,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2991,7 +2997,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -3034,7 +3040,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <v>41913</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3079,7 +3085,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -3122,7 +3128,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
@@ -3210,7 +3216,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="7"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3259,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="7"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3347,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="7"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
@@ -3384,7 +3390,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="7"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3472,7 +3478,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="7"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3740,7 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="7"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
@@ -3777,7 +3783,7 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
@@ -7880,6 +7886,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A44"/>
@@ -7889,17 +7906,6 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -35850,7 +35856,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -35862,15 +35867,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="19" max="19" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:24">
       <c r="B1" s="5">
         <v>41652</v>
       </c>
@@ -35901,8 +35909,20 @@
       <c r="K1">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
+      <c r="L1">
+        <v>0.67</v>
+      </c>
+      <c r="M1">
+        <v>0.33</v>
+      </c>
+      <c r="N1">
+        <v>0.44220000000000004</v>
+      </c>
+      <c r="S1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
       <c r="B2" s="5">
         <v>41683</v>
       </c>
@@ -35933,8 +35953,26 @@
       <c r="K2">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="L2">
+        <v>0.67</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.80239520958083832</v>
+      </c>
+      <c r="S2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
       <c r="B3" s="5">
         <v>41711</v>
       </c>
@@ -35965,8 +36003,38 @@
       <c r="K3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="L3">
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <v>0.75</v>
+      </c>
+      <c r="N3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S3">
+        <f>L1-I1</f>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <f>J1-M1</f>
+        <v>0.34</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <f>K1-N1</f>
+        <v>8.7799999999999989E-2</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="5">
         <v>41742</v>
       </c>
@@ -35997,8 +36065,35 @@
       <c r="K4">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="L4">
+        <v>0.33</v>
+      </c>
+      <c r="M4">
+        <v>0.25</v>
+      </c>
+      <c r="N4">
+        <v>0.28448275862068967</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S19" si="0">L2-I2</f>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U17" si="1">J2-M2</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W17" si="2">K2-N2</f>
+        <v>-0.13239520958083828</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
       <c r="B5" s="5">
         <v>41772</v>
       </c>
@@ -36029,8 +36124,38 @@
       <c r="K5">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="L5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>0.336231884057971</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="T5">
+        <v>11</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="5">
         <v>41803</v>
       </c>
@@ -36061,8 +36186,35 @@
       <c r="K6">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-0.23999999999999994</v>
+      </c>
+      <c r="T6">
+        <v>4.5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0.44551724137931031</v>
+      </c>
+      <c r="X6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7" s="5">
         <v>41833</v>
       </c>
@@ -36093,8 +36245,38 @@
       <c r="K7">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-9.0000000000000024E-2</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V7">
+        <v>3.5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0.13376811594202898</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="5">
         <v>41864</v>
       </c>
@@ -36125,8 +36307,38 @@
       <c r="K8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="5">
         <v>41895</v>
       </c>
@@ -36157,8 +36369,38 @@
       <c r="K9">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>11</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="X9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10" s="5">
         <v>41925</v>
       </c>
@@ -36189,8 +36431,38 @@
       <c r="K10">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.4</v>
+      </c>
+      <c r="N10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>-0.67</v>
+      </c>
+      <c r="T10">
+        <v>1.5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="X10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="5">
         <v>41956</v>
       </c>
@@ -36221,8 +36493,38 @@
       <c r="K11">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="L11">
+        <v>0.75</v>
+      </c>
+      <c r="M11">
+        <v>0.5</v>
+      </c>
+      <c r="N11">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>-0.67</v>
+      </c>
+      <c r="T11">
+        <v>1.5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0.67</v>
+      </c>
+      <c r="X11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12" s="5">
         <v>41986</v>
       </c>
@@ -36253,8 +36555,38 @@
       <c r="K12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+      <c r="M12">
+        <v>0.27</v>
+      </c>
+      <c r="N12">
+        <v>0.3970588235294118</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V12">
+        <v>3.5</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>2.5555555555555554E-2</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13" s="5">
         <v>41653</v>
       </c>
@@ -36285,8 +36617,38 @@
       <c r="K13">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="L13">
+        <v>0.43</v>
+      </c>
+      <c r="M13">
+        <v>0.38</v>
+      </c>
+      <c r="N13">
+        <v>0.40345679012345675</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14" s="5">
         <v>41684</v>
       </c>
@@ -36317,8 +36679,38 @@
       <c r="K14">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="L14">
+        <v>0.43</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>0.46236559139784938</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0.20294117647058818</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
       <c r="B15" s="5">
         <v>41712</v>
       </c>
@@ -36350,16 +36742,87 @@
         <f>2*J15*I15/(I15+J15)</f>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="17" spans="4:18">
+      <c r="L15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M15">
+        <v>0.8</v>
+      </c>
+      <c r="N15">
+        <v>0.66569343065693432</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>-0.27999999999999997</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>0.26654320987654329</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="S16">
+        <f>L14-I14</f>
+        <v>-0.24000000000000005</v>
+      </c>
+      <c r="T16">
+        <v>4.5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0.20763440860215066</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24">
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="M17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="4:18">
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="T17">
+        <v>9</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>-5.0308815272318896E-2</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24">
       <c r="D18" t="s">
         <v>62</v>
       </c>
@@ -36379,7 +36842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:24">
       <c r="D19">
         <f>I1-C1</f>
         <v>-0.06</v>
@@ -36388,21 +36851,21 @@
         <v>4.5</v>
       </c>
       <c r="F19">
-        <f>J1-D1</f>
+        <f t="shared" ref="F19:F33" si="3">J1-D1</f>
         <v>0.5</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19">
-        <f>K1-E1</f>
+        <f t="shared" ref="H19:H33" si="4">K1-E1</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="I19">
         <v>12.5</v>
       </c>
       <c r="M19">
-        <f>I1-F1</f>
+        <f t="shared" ref="M19:M33" si="5">I1-F1</f>
         <v>0.31</v>
       </c>
       <c r="N19">
@@ -36419,543 +36882,654 @@
       <c r="R19">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="20" spans="4:18">
+      <c r="S19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19">
+        <f>T3+T4+T5+T12+T13+T14+T17</f>
+        <v>84</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19">
+        <f>V3+V7+V8+V9+V10+V11+V12+V14+V13+V15+V16</f>
+        <v>77</v>
+      </c>
+      <c r="W19" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19">
+        <f>X3+X6+X7+X8+X9+X10+X11+X12+X14+X15+X16</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24">
       <c r="D20">
-        <f t="shared" ref="D20:D34" si="0">I2-C2</f>
+        <f t="shared" ref="D20:D33" si="6">I2-C2</f>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E20">
         <v>1.5</v>
       </c>
       <c r="F20">
-        <f>J2-D2</f>
+        <f t="shared" si="3"/>
         <v>0.21999999999999997</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
-        <f>K2-E2</f>
+        <f t="shared" si="4"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="M20">
-        <f>I2-F2</f>
+        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="N20">
         <v>10</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O33" si="1">J2-G2</f>
+        <f t="shared" ref="O20:O33" si="7">J2-G2</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" ref="Q20:Q33" si="2">K2-H2</f>
+        <f t="shared" ref="Q20:Q33" si="8">K2-H2</f>
         <v>0.46000000000000008</v>
       </c>
       <c r="R20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="4:18">
+      <c r="S20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20">
+        <f>T6+T7+T8+T9+T10+T11+T15+T16</f>
+        <v>36</v>
+      </c>
+      <c r="U20" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20">
+        <f>V5</f>
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20">
+        <f>X4+X5+X13+X17</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24">
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <f>J3-D3</f>
+        <f t="shared" si="3"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21">
-        <f>K3-E3</f>
+        <f t="shared" si="4"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="M21">
-        <f>I3-F3</f>
+        <f t="shared" si="5"/>
         <v>0.21000000000000002</v>
       </c>
       <c r="N21">
         <v>5.5</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.13</v>
       </c>
       <c r="R21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:24">
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.21000000000000008</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
       <c r="F22">
-        <f>J4-D4</f>
+        <f t="shared" si="3"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="G22">
         <v>14</v>
       </c>
       <c r="H22">
-        <f>K4-E4</f>
+        <f t="shared" si="4"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="I22">
         <v>5</v>
       </c>
       <c r="M22">
-        <f>I4-F4</f>
+        <f t="shared" si="5"/>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="R22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="4:18">
+      <c r="S22" t="s">
+        <v>67</v>
+      </c>
+      <c r="T22">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>67</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24">
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.13</v>
       </c>
       <c r="E23">
         <v>8</v>
       </c>
       <c r="F23">
-        <f>J5-D5</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <f>K5-E5</f>
+        <f t="shared" si="4"/>
         <v>-7.0000000000000062E-2</v>
       </c>
       <c r="I23">
         <v>7</v>
       </c>
       <c r="M23">
-        <f>I5-F5</f>
+        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
       <c r="N23">
         <v>7.5</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="P23">
         <v>5</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.30999999999999994</v>
       </c>
       <c r="R23">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="24" spans="4:18">
+      <c r="S23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T23">
+        <f>T19-T20</f>
+        <v>48</v>
+      </c>
+      <c r="U23" t="s">
+        <v>71</v>
+      </c>
+      <c r="V23">
+        <f>V19-V20</f>
+        <v>76</v>
+      </c>
+      <c r="W23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X23">
+        <f>X19-X20</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24">
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24">
-        <f>J6-D6</f>
+        <f t="shared" si="3"/>
         <v>0.31999999999999995</v>
       </c>
       <c r="G24">
         <v>8.5</v>
       </c>
       <c r="H24">
-        <f>K6-E6</f>
+        <f t="shared" si="4"/>
         <v>-8.0000000000000016E-2</v>
       </c>
       <c r="I24">
         <v>8</v>
       </c>
       <c r="M24">
-        <f>I6-F6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="4:18">
+      <c r="S24" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24">
+        <f>(T23-0.5)/SQRT(15*16*31/6)</f>
+        <v>1.3489093563367789</v>
+      </c>
+      <c r="U24" t="s">
+        <v>68</v>
+      </c>
+      <c r="V24">
+        <f>(V23-0.5)/SQRT(12*13*25/6)</f>
+        <v>2.9613536405865788</v>
+      </c>
+      <c r="W24" t="s">
+        <v>68</v>
+      </c>
+      <c r="X24">
+        <f>(X23-0.5)/SQRT(15*16*31/6)</f>
+        <v>2.8256101253791472</v>
+      </c>
+    </row>
+    <row r="25" spans="4:24">
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="E25">
         <v>1.5</v>
       </c>
       <c r="F25">
-        <f>J7-D7</f>
+        <f t="shared" si="3"/>
         <v>0.31999999999999995</v>
       </c>
       <c r="G25">
         <v>8.5</v>
       </c>
       <c r="H25">
-        <f>K7-E7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>I7-F7</f>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="R25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="4:18">
+    <row r="26" spans="4:24">
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
       <c r="E26">
         <v>14</v>
       </c>
       <c r="F26">
-        <f>J8-D8</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="G26">
         <v>13</v>
       </c>
       <c r="H26">
-        <f>K8-E8</f>
+        <f t="shared" si="4"/>
         <v>0.33000000000000007</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>14</v>
       </c>
       <c r="M26">
-        <f>I8-F8</f>
+        <f t="shared" si="5"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="N26">
         <v>13</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="R26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="4:18">
+      <c r="S26" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24">
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.17000000000000004</v>
       </c>
       <c r="E27">
         <v>8</v>
       </c>
       <c r="F27">
-        <f>J9-D9</f>
+        <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27">
-        <f>K9-E9</f>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>12.5</v>
       </c>
       <c r="M27">
-        <f>I9-F9</f>
+        <f t="shared" si="5"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="N27">
         <v>12</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-0.32999999999999996</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="4:18">
+    <row r="28" spans="4:24">
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.24</v>
       </c>
       <c r="E28">
         <v>13</v>
       </c>
       <c r="F28">
-        <f>J10-D10</f>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="G28">
         <v>11</v>
       </c>
       <c r="H28">
-        <f>K10-E10</f>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="M28">
-        <f>I10-F10</f>
+        <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N28">
         <v>3</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-0.20000000000000007</v>
       </c>
       <c r="P28">
         <v>2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:18">
+    <row r="29" spans="4:24">
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.44</v>
       </c>
       <c r="E29">
         <v>15</v>
       </c>
       <c r="F29">
-        <f>J11-D11</f>
+        <f t="shared" si="3"/>
         <v>0.38999999999999996</v>
       </c>
       <c r="G29">
         <v>12</v>
       </c>
       <c r="H29">
-        <f>K11-E11</f>
+        <f t="shared" si="4"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="M29">
-        <f>I11-F11</f>
+        <f t="shared" si="5"/>
         <v>0.24000000000000002</v>
       </c>
       <c r="N29">
         <v>7.5</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.23999999999999994</v>
       </c>
       <c r="R29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:24">
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-0.22999999999999998</v>
       </c>
       <c r="E30">
         <v>11</v>
       </c>
       <c r="F30">
-        <f>J12-D12</f>
+        <f t="shared" si="3"/>
         <v>0.23000000000000004</v>
       </c>
       <c r="G30">
         <v>7</v>
       </c>
       <c r="H30">
-        <f>K12-E12</f>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="I30">
         <v>11</v>
       </c>
       <c r="M30">
-        <f>I12-F12</f>
+        <f t="shared" si="5"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="N30">
         <v>4</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="R30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:18">
+    <row r="31" spans="4:24">
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="E31">
         <v>4.5</v>
       </c>
       <c r="F31">
-        <f>J13-D13</f>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
-        <f>K13-E13</f>
+        <f t="shared" si="4"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
       <c r="M31">
-        <f>I13-F13</f>
+        <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
       <c r="N31">
         <v>14</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.13</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.39</v>
       </c>
       <c r="R31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="4:18">
+    <row r="32" spans="4:24">
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
       <c r="F32">
-        <f>J14-D14</f>
+        <f t="shared" si="3"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <f>K14-E14</f>
+        <f t="shared" si="4"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="M32">
-        <f>I14-F14</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="N32">
         <v>11</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="R32">
@@ -36964,39 +37538,39 @@
     </row>
     <row r="33" spans="3:18">
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33">
-        <f>J15-D15</f>
+        <f t="shared" si="3"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33">
-        <f>K15-E15</f>
+        <f t="shared" si="4"/>
         <v>-6.461538461538463E-2</v>
       </c>
       <c r="I33">
         <v>6</v>
       </c>
       <c r="M33">
-        <f>I15-F15</f>
+        <f t="shared" si="5"/>
         <v>0.21000000000000002</v>
       </c>
       <c r="N33">
         <v>5.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.19538461538461543</v>
       </c>
       <c r="R33">
@@ -37247,7 +37821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:D38"/>
     </sheetView>
   </sheetViews>
@@ -37270,7 +37844,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>41287</v>
       </c>
       <c r="B4">
@@ -37284,7 +37858,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>41318</v>
       </c>
       <c r="B5">
@@ -37298,7 +37872,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>41346</v>
       </c>
       <c r="B6">
@@ -37312,7 +37886,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>41377</v>
       </c>
       <c r="B7">
@@ -37326,7 +37900,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>41407</v>
       </c>
       <c r="B8">
@@ -37340,7 +37914,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>41438</v>
       </c>
       <c r="B9">
@@ -37354,7 +37928,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>41468</v>
       </c>
       <c r="B10">
@@ -37368,7 +37942,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>41499</v>
       </c>
       <c r="B11">
@@ -37382,7 +37956,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>41530</v>
       </c>
       <c r="B12">
@@ -37396,7 +37970,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>41560</v>
       </c>
       <c r="B13">
@@ -37410,7 +37984,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>41591</v>
       </c>
       <c r="B14">
@@ -37424,7 +37998,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>41621</v>
       </c>
       <c r="B15">
@@ -37438,7 +38012,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>41653</v>
       </c>
       <c r="B16">
@@ -37452,7 +38026,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>41684</v>
       </c>
       <c r="B17">
@@ -37466,7 +38040,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>41712</v>
       </c>
       <c r="B18">
@@ -37707,7 +38281,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -37720,7 +38293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N27"/>
     </sheetView>
   </sheetViews>
@@ -40657,7 +41230,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
